--- a/data/example/example.calls.xlsx
+++ b/data/example/example.calls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t xml:space="preserve">patient</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">chr4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt0_Bcells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrY</t>
   </si>
 </sst>
 </file>
@@ -176,10 +182,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -395,6 +401,30 @@
       <c r="G9" s="2" t="n">
         <f aca="false">(F9/(F9+E9))</f>
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">(F10/(F10+E10))</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
